--- a/uglify_Andy.xlsx
+++ b/uglify_Andy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\2023年\7月\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0D94C-10CE-4226-891C-1827F1762124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C9302A-C672-453A-902B-A8A87710155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B22B298-2AA0-4567-9884-6A26FCBE2C24}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{4B22B298-2AA0-4567-9884-6A26FCBE2C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加花指令后，make工程时会报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在Makefile配置文件中的WARNINGS选项中添加-Wno-unused-value -Wno-unused-variable \会将报错变更为警告从而不影响程序执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,58 @@
 random_number1=$((RANDOM % 5))
    # 利用随机数进行判断花指令类型
    case $random_number1 in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加花指令后，make工程时会报错无效代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机删除空行时会有部分文件不进行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式为Windows格式，所以无法正常匹配到空行所在行，需要执行格式转换：
+#将所有文件强制转换为LF格式
+find . -type f -exec dos2unix {} +
+另外，file filename命令可以查看文件的具体格式，例如：
+tinacao@TinaCaoPC:/mnt/d/Uglify$ file ue_nas.c
+ue_nas.c: C source, ASCII text, with CRLF line terminators
+tinacao@TinaCaoPC:/mnt/d/Uglify$ file ed_c_NAS5G.c
+ed_c_NAS5G.c: C source, ASCII text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入花指令时会出现少许短函数在一行插入下一行则错误的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTK1013：在以下文件跟踪日志文件中，未能找到unicode字节顺序标志。跟踪数据无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译时会自动将跟踪日志文件CL.command.1.tlog强制修改为Windows格式，改回Unix格式则错误解决，原因暂时未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐个排查，最终确定导致调试失败产生大量错误的脚本只有随机删除注释部分，其余部分单独调试不会产生错误（类似上一个问题，编译时会自动将CL.read.1.tlog和CL.write.1.tlog两个文件强制修改为Windows格式，但是修改回Unix格式不能解决问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc2unix强制转换成Unix格式会产生大量临时文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (ED_REMAINING_BITS/*&lt;--Signed*/&gt;/*Integer--&gt;*/(ED_SIGNED_LONG)0) {
+19521：  if (ED_REMAINING_BITS/*&lt;--Signed*/&gt;(ED_SIGNED_LONG)0) {</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,11 +213,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -187,6 +238,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>700730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA89945-D84F-D0FD-FBE3-71D47404B273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5381625" y="7800975"/>
+          <a:ext cx="5962650" cy="1653230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,19 +605,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3FD8DC-7D3D-4FC6-B3B4-523BBA756C9D}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="70.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -511,11 +628,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>7.13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -534,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -563,43 +680,81 @@
     </row>
     <row r="8" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="10" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10"/>
+    </row>
     <row r="11" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,5 +765,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>